--- a/biology/Médecine/Clovis_Duval/Clovis_Duval.xlsx
+++ b/biology/Médecine/Clovis_Duval/Clovis_Duval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clovis Duval est un poète québécois né à Batiscan le 5 septembre 1882 et décédé le 21 décembre 1951. 
 Il fait son cours classique puis s'inscrit à l'Université Laval en médecine. 
 Il pratique la médecine à partir de 1907 s'adonnant en parallèle à sa passion: la poésie. 
-Le fonds d'archives de Clovis Duval est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec[1].
+Le fonds d'archives de Clovis Duval est conservé au centre d'archives de Montréal de Bibliothèque et Archives nationales du Québec.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Six nouvelles cloches, 1912, paru dans le journal Le Bien Public, 22 août 1912, page 1.
 Les Fleurs Tardives, 1923
@@ -547,7 +561,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1939 - Prix David</t>
         </is>
